--- a/excel/Financial_Modeling_Fundamentals.xlsx
+++ b/excel/Financial_Modeling_Fundamentals.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunilnair/Documents/ByteSize Trainings/Topics/Financial Modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3914C7B5-A189-A941-83D3-36A4959471BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B1FAB-80FD-8B43-A53C-96098B244948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14300" xr2:uid="{AEFFEA76-5FA8-D04C-A2C8-701AA1DBBDE6}"/>
+    <workbookView xWindow="1580" yWindow="2000" windowWidth="26840" windowHeight="14300" activeTab="3" xr2:uid="{AEFFEA76-5FA8-D04C-A2C8-701AA1DBBDE6}"/>
   </bookViews>
   <sheets>
     <sheet name="DCF &amp; NPV" sheetId="1" r:id="rId1"/>
     <sheet name="IRR_Solved" sheetId="2" r:id="rId2"/>
     <sheet name="IRR_E" sheetId="3" r:id="rId3"/>
-    <sheet name="EOMONTH &amp; EDATE" sheetId="4" r:id="rId4"/>
-    <sheet name="Date Functions_E" sheetId="5" r:id="rId5"/>
+    <sheet name="DCF Valuation" sheetId="7" r:id="rId4"/>
+    <sheet name="EOMONTH &amp; EDATE" sheetId="4" r:id="rId5"/>
+    <sheet name="Date Functions_E" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
   <si>
     <t>Calculating Present &amp; Future value</t>
   </si>
@@ -157,6 +158,48 @@
   </si>
   <si>
     <t>dec</t>
+  </si>
+  <si>
+    <t>Perpetuity Growth</t>
+  </si>
+  <si>
+    <t>Discount Factor</t>
+  </si>
+  <si>
+    <t>DCF Valuation</t>
+  </si>
+  <si>
+    <t>PV of Cash Flows</t>
+  </si>
+  <si>
+    <t>Where:</t>
+  </si>
+  <si>
+    <t>FCF = free cash flow for the last forecast period </t>
+  </si>
+  <si>
+    <t>g = terminal growth rate </t>
+  </si>
+  <si>
+    <t>d = discount rate (which is usually the weighted average cost of capital)</t>
+  </si>
+  <si>
+    <t>CF x (1 + g)] / (d – g)</t>
+  </si>
+  <si>
+    <t>Continuing / Terminal Value</t>
+  </si>
+  <si>
+    <t>Fornula for Continous / Terminal Value</t>
+  </si>
+  <si>
+    <t>PV of Terminal Value</t>
+  </si>
+  <si>
+    <t>Enterprise Value</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
 </sst>
 </file>
@@ -170,9 +213,16 @@
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="166" formatCode="0.00000000000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -301,6 +351,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -385,124 +470,141 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="8" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="17" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="8" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1395,7 +1497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ADD786D-9530-C643-B214-9E648A29CD28}">
   <dimension ref="B1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
+    <sheetView zoomScale="169" zoomScaleNormal="169" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1546,7 +1648,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1589,13 +1691,13 @@
     </row>
     <row r="6" spans="1:11" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="1"/>
-      <c r="F6" s="25" t="s">
+      <c r="F6" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:11" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="5"/>
@@ -1677,26 +1779,11 @@
     </row>
     <row r="10" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E10" s="12"/>
-      <c r="F10" s="30">
-        <f>F8/(1+$F$17)^F7</f>
-        <v>28.519935200236514</v>
-      </c>
-      <c r="G10" s="30">
-        <f t="shared" ref="G10:J10" si="1">G8/(1+$F$17)^G7</f>
-        <v>108.45156051009197</v>
-      </c>
-      <c r="H10" s="30">
-        <f t="shared" si="1"/>
-        <v>171.83508211735287</v>
-      </c>
-      <c r="I10" s="30">
-        <f t="shared" si="1"/>
-        <v>98.014508142284484</v>
-      </c>
-      <c r="J10" s="30">
-        <f t="shared" si="1"/>
-        <v>93.178914030033582</v>
-      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
       <c r="K10" s="31"/>
     </row>
     <row r="11" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -1767,10 +1854,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="33">
-        <f>IRR(E8:J8)</f>
-        <v>5.1895798127592263E-2</v>
-      </c>
+      <c r="F17" s="33"/>
       <c r="G17" s="19"/>
       <c r="H17" s="10"/>
     </row>
@@ -1810,14 +1894,14 @@
   <dimension ref="B1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.83203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.83203125" style="7" customWidth="1"/>
     <col min="5" max="10" width="8.6640625" style="7" customWidth="1"/>
     <col min="11" max="11" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
@@ -1936,13 +2020,13 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="2:11" ht="13" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="5"/>
@@ -2000,44 +2084,26 @@
       <c r="E14" s="30">
         <v>-1000</v>
       </c>
-      <c r="F14" s="36">
-        <f>F13/(1+$C$9)^F12</f>
-        <v>277.23870252287219</v>
-      </c>
-      <c r="G14" s="36">
-        <f>G13/(1+$C$9)^G12</f>
-        <v>247.66418301337811</v>
-      </c>
-      <c r="H14" s="36">
-        <f>H13/(1+$C$9)^H12</f>
-        <v>114.43682793336016</v>
-      </c>
-      <c r="I14" s="36">
-        <f>I13/(1+$C$9)^I12</f>
-        <v>94.814282772876652</v>
-      </c>
-      <c r="J14" s="36">
-        <f>J13/(1+$C$9)^J12</f>
-        <v>110.53679366155389</v>
-      </c>
-      <c r="K14" s="37"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="36"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C16" s="7"/>
-      <c r="E16" s="38"/>
+      <c r="E16" s="37"/>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C17" s="7"/>
       <c r="I17" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="J17" s="39">
-        <f>IRR(E13:J13)</f>
-        <v>1.1190532722118673E-2</v>
-      </c>
+      <c r="J17" s="38"/>
     </row>
     <row r="18" spans="3:10" x14ac:dyDescent="0.15">
       <c r="C18" s="7"/>
@@ -2070,11 +2136,335 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1830A75-6A5B-544E-896E-4E5170EFE747}">
+  <dimension ref="A1:P28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" zoomScaleNormal="119" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2" style="7" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="7" customWidth="1"/>
+    <col min="3" max="4" width="5.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="6.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="11" customWidth="1"/>
+    <col min="7" max="10" width="9.1640625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.1640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="24">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="F6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" ht="13" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27">
+        <v>0</v>
+      </c>
+      <c r="F7" s="27">
+        <v>1</v>
+      </c>
+      <c r="G7" s="27">
+        <v>2</v>
+      </c>
+      <c r="H7" s="27">
+        <v>3</v>
+      </c>
+      <c r="I7" s="27">
+        <v>4</v>
+      </c>
+      <c r="J7" s="27">
+        <v>5</v>
+      </c>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30">
+        <v>-500</v>
+      </c>
+      <c r="F8" s="30">
+        <v>30</v>
+      </c>
+      <c r="G8" s="12">
+        <v>120</v>
+      </c>
+      <c r="H8" s="12">
+        <v>200</v>
+      </c>
+      <c r="I8" s="12">
+        <v>120</v>
+      </c>
+      <c r="J8" s="12">
+        <v>120</v>
+      </c>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="30">
+        <f t="shared" ref="E9:J9" si="0">E8/(1+$C$4)^E7</f>
+        <v>-500</v>
+      </c>
+      <c r="F9" s="30">
+        <f t="shared" si="0"/>
+        <v>27.27272727272727</v>
+      </c>
+      <c r="G9" s="30">
+        <f t="shared" si="0"/>
+        <v>99.173553719008254</v>
+      </c>
+      <c r="H9" s="30">
+        <f t="shared" si="0"/>
+        <v>150.2629601803155</v>
+      </c>
+      <c r="I9" s="30">
+        <f t="shared" si="0"/>
+        <v>81.96161464380846</v>
+      </c>
+      <c r="J9" s="30">
+        <f t="shared" si="0"/>
+        <v>74.510558767098601</v>
+      </c>
+      <c r="K9" s="31"/>
+    </row>
+    <row r="10" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="31"/>
+    </row>
+    <row r="11" spans="1:13" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="12"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="31"/>
+    </row>
+    <row r="12" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="12"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="31"/>
+    </row>
+    <row r="13" spans="1:13" ht="12" x14ac:dyDescent="0.15">
+      <c r="B13" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="16">
+        <f>E8+F9+G9+H9+I9+J9</f>
+        <v>-66.818585417041888</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:13" ht="12" x14ac:dyDescent="0.15">
+      <c r="B14" s="23"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="15" spans="1:13" ht="12" x14ac:dyDescent="0.15">
+      <c r="B15" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="16">
+        <f>SUM(E8,NPV(C4,F8:J8))</f>
+        <v>-66.818585417041902</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="2:16" ht="12" x14ac:dyDescent="0.15">
+      <c r="B17" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="33">
+        <f>IRR(E8:J8)</f>
+        <v>5.1895798127592263E-2</v>
+      </c>
+      <c r="G17" s="19"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="2:16" ht="12" x14ac:dyDescent="0.15">
+      <c r="B18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L19" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+    </row>
+    <row r="20" spans="2:16" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="L20" s="55" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L21" s="56"/>
+    </row>
+    <row r="22" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B22" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="7"/>
+      <c r="L22" s="57" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E23" s="61"/>
+      <c r="F23" s="7"/>
+      <c r="L23" s="56"/>
+    </row>
+    <row r="24" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B24" s="63" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="61"/>
+      <c r="L24" s="57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="B25" s="52" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="62"/>
+      <c r="L25" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="L26" s="58" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="D27" s="12"/>
+      <c r="L27" s="59"/>
+    </row>
+    <row r="28" spans="2:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="L28" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="L19:P19"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="L26" r:id="rId1" display="https://www.investopedia.com/terms/w/wacc.asp" xr:uid="{8C9804A3-BE67-C044-A22E-5F76877DF462}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964CB30C-A0A6-9142-B971-A5B184AD009F}">
   <dimension ref="B1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2100,67 +2490,61 @@
       <c r="D3" s="7"/>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="40" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C5" s="40">
+      <c r="C5" s="39">
         <v>43466</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="39">
         <f>EOMONTH(C5, 1)</f>
         <v>43524</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <f>EDATE(C5, 5)</f>
         <v>43617</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <f>EDATE(C5, 5*12)</f>
         <v>45292</v>
       </c>
     </row>
     <row r="6" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C6" s="40">
+      <c r="C6" s="39">
         <v>43957</v>
       </c>
-      <c r="D6" s="40">
-        <f>EOMONTH(C6, 1)</f>
-        <v>44012</v>
-      </c>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="39"/>
     </row>
     <row r="7" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C7" s="40">
+      <c r="C7" s="39">
         <v>44337</v>
       </c>
-      <c r="D7" s="40">
-        <f>EOMONTH(C7, 1)</f>
-        <v>44377</v>
-      </c>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
+      <c r="D7" s="39"/>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C8" s="42"/>
+      <c r="C8" s="41"/>
       <c r="D8" s="15"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C9" s="42"/>
-      <c r="D9" s="43"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="42"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
     </row>
@@ -2178,7 +2562,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24B8A110-9B06-C843-B01A-E2828943AD73}">
   <dimension ref="B1:P29"/>
   <sheetViews>
@@ -2191,7 +2575,7 @@
     <col min="1" max="1" width="2" style="7" customWidth="1"/>
     <col min="2" max="2" width="13" style="7" customWidth="1"/>
     <col min="3" max="3" width="14" style="7" customWidth="1"/>
-    <col min="4" max="4" width="13.5" style="40" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="39" customWidth="1"/>
     <col min="5" max="5" width="6.1640625" style="7" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="7" customWidth="1"/>
@@ -2242,7 +2626,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C12" s="44"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.15">
@@ -2255,184 +2639,184 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="2:16" ht="13" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="45" t="s">
+      <c r="D16" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="45" t="s">
+      <c r="H16" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="46"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="46"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="46"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="47">
         <v>42750</v>
       </c>
-      <c r="D17" s="49"/>
+      <c r="D17" s="48"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="40"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="50"/>
-      <c r="O17" s="50"/>
-      <c r="P17" s="50"/>
+      <c r="H17" s="39"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="49"/>
+      <c r="O17" s="49"/>
+      <c r="P17" s="49"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="40"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
+      <c r="H18" s="39"/>
+      <c r="J18" s="45"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="45"/>
+      <c r="N18" s="45"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="45"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="40"/>
+      <c r="H19" s="39"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B20" s="47" t="s">
+      <c r="B20" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="40"/>
+      <c r="H20" s="39"/>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="40"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="40"/>
+      <c r="H22" s="39"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="40"/>
+      <c r="H23" s="39"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
-      <c r="H24" s="40"/>
+      <c r="H24" s="39"/>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="49"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
-      <c r="H25" s="40"/>
+      <c r="H25" s="39"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
-      <c r="H26" s="40"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="40"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="B28" s="47" t="s">
+      <c r="B28" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
+      <c r="C28" s="48"/>
+      <c r="D28" s="48"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
-      <c r="H28" s="40"/>
+      <c r="H28" s="39"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.15">
-      <c r="C29" s="46"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="46"/>
+      <c r="C29" s="45"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
